--- a/V1/Parts List.xlsx
+++ b/V1/Parts List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>quantity</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Check package size !!!</t>
-  </si>
-  <si>
     <t>ED10563-ND</t>
   </si>
   <si>
@@ -112,6 +109,66 @@
   </si>
   <si>
     <t>39 uf decoupling cap</t>
+  </si>
+  <si>
+    <t>A122645-ND</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>YAG3431CT-ND</t>
+  </si>
+  <si>
+    <t>1k resistor</t>
+  </si>
+  <si>
+    <t>YAG2918CT-ND</t>
+  </si>
+  <si>
+    <t>62 ohm</t>
+  </si>
+  <si>
+    <t>YAG3430CT-ND</t>
+  </si>
+  <si>
+    <t>10k ohm</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>TVS DIODES</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>CAN BUS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>0.1 uf</t>
+  </si>
+  <si>
+    <t>490-5881-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1324-1-ND</t>
+  </si>
+  <si>
+    <t>1 uf</t>
+  </si>
+  <si>
+    <t>Check List</t>
   </si>
 </sst>
 </file>
@@ -477,21 +534,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,137 +564,283 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205865865&amp;uq=636082415206600541"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205866451&amp;uq=636082415206600541"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205875589&amp;uq=636082415206610542"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205877519&amp;uq=636082415206610542"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205781348&amp;uq=636082417483754198"/>
+    <hyperlink ref="B15" r:id="rId1" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205865865&amp;uq=636082415206600541"/>
+    <hyperlink ref="B16" r:id="rId2" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205866451&amp;uq=636082415206600541"/>
+    <hyperlink ref="B34" r:id="rId3" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205875589&amp;uq=636082415206610542"/>
+    <hyperlink ref="B17" r:id="rId4" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205877519&amp;uq=636082415206610542"/>
+    <hyperlink ref="B31" r:id="rId5" display="http://www.digikey.ca/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=205781348&amp;uq=636082417483754198"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
